--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
     <sheet name="1point3square" sheetId="2" r:id="rId2"/>
     <sheet name="coronavirus_google_trend" sheetId="3" r:id="rId3"/>
     <sheet name="COVID-19_google_trend" sheetId="4" r:id="rId4"/>
+    <sheet name="Important_date" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Persons underinvestigation</t>
   </si>
@@ -74,6 +75,33 @@
   <si>
     <t>Ohio</t>
   </si>
+  <si>
+    <t>first case in Ohio</t>
+  </si>
+  <si>
+    <t>first case in Columbus</t>
+  </si>
+  <si>
+    <t>first case in US</t>
+  </si>
+  <si>
+    <t>first death in US</t>
+  </si>
+  <si>
+    <t>first death in Ohio</t>
+  </si>
+  <si>
+    <t>first death in Columbus</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Emergency in Ohio</t>
+  </si>
+  <si>
+    <t>Emergency in US</t>
+  </si>
 </sst>
 </file>
 
@@ -108,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +620,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -617,22 +646,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -640,12 +669,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -653,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -661,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -681,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -689,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>SUM(B2:B10)</f>
         <v>6</v>
@@ -718,7 +747,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>SUM(B2:H10)</f>
         <v>14</v>
       </c>
@@ -2836,4 +2865,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Persons underinvestigation</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Emergency in US</t>
+  </si>
+  <si>
+    <t>Lorain</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Tuscarawas</t>
+  </si>
+  <si>
+    <t>Medina</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +613,23 @@
         <v>333</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>361</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -609,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +649,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -645,52 +674,92 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>SUM(B2:L2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="0">SUM(B3:L3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -709,47 +778,119 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43905</v>
+      </c>
       <c r="B11">
-        <f>SUM(B2:B10)</f>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:M12" si="1">SUM(C2:C11)</f>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:H11" si="0">SUM(C2:C10)</f>
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="2">SUM(J2:J11)</f>
         <v>1</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="K12">
+        <f t="shared" ref="K12" si="3">SUM(K2:K11)</f>
         <v>1</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="L12">
+        <f t="shared" ref="L12" si="4">SUM(L2:L11)</f>
         <v>1</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f>SUM(B2:H10)</f>
-        <v>14</v>
+      <c r="M12">
+        <f>SUM(M2:M11)</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
-  <si>
-    <t>Persons underinvestigation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -114,6 +111,15 @@
   <si>
     <t>Medina</t>
   </si>
+  <si>
+    <t>Geauga</t>
+  </si>
+  <si>
+    <t>Number of Hospitalizations in Ohio</t>
+  </si>
+  <si>
+    <t>Persons under investigation</t>
+  </si>
 </sst>
 </file>
 
@@ -148,10 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +176,1761 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ohio_CDC!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DF1-4731-81BC-CEACE309BC60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1892968079"/>
+        <c:axId val="1892953103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1892968079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892953103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1892953103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892968079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ohio_CDC!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0185-4C9A-8D05-FC28FDD424EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1902778207"/>
+        <c:axId val="1902778623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1902778207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1902778623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1902778623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1902778207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,32 +2196,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -470,11 +2239,11 @@
       <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -487,11 +2256,11 @@
       <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -504,11 +2273,11 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -521,11 +2290,11 @@
       <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -538,14 +2307,14 @@
       <c r="D6">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>255</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -558,11 +2327,11 @@
       <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -575,11 +2344,11 @@
       <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -592,11 +2361,11 @@
       <c r="D9">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -609,11 +2378,11 @@
       <c r="D10">
         <v>85</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -626,22 +2395,43 @@
       <c r="D11">
         <v>140</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
         <v>333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,117 +2439,120 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="M2">
-        <f>SUM(B2:L2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f t="shared" ref="N2:N11" si="0">SUM(B2:M2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="0">SUM(B3:L3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -778,12 +2571,12 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -808,12 +2601,12 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -838,59 +2631,84 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43906</v>
+      </c>
       <c r="B12">
-        <f>SUM(B2:B11)</f>
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:M12" si="1">SUM(C2:C11)</f>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>SUM(B12:M12)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:N13" si="1">SUM(C2:C12)</f>
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I12">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J12">
-        <f t="shared" ref="J12" si="2">SUM(J2:J11)</f>
+      <c r="M13">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K12">
-        <f t="shared" ref="K12" si="3">SUM(K2:K11)</f>
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12" si="4">SUM(L2:L11)</f>
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f>SUM(M2:M11)</f>
-        <v>37</v>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -914,16 +2732,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,13 +2749,13 @@
         <v>43830</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>43830</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,7 +2783,7 @@
         <v>43832</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,13 +2791,13 @@
         <v>43833</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>43833</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,13 +2833,13 @@
         <v>43836</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>43836</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,7 +2847,7 @@
         <v>43837</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>43837</v>
@@ -1077,7 +2895,7 @@
         <v>43840</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,7 +2909,7 @@
         <v>43841</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,7 +2923,7 @@
         <v>43842</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,7 +2937,7 @@
         <v>43843</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,7 +2951,7 @@
         <v>43844</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +2965,7 @@
         <v>43845</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,13 +2973,13 @@
         <v>43846</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>43846</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,13 +2987,13 @@
         <v>43847</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <v>43847</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,13 +3001,13 @@
         <v>43848</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>43848</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,13 +3015,13 @@
         <v>43849</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>43849</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,13 +3029,13 @@
         <v>43850</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
         <v>43850</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,16 +3787,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,7 +4842,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1">
         <v>43849</v>
@@ -3032,7 +4850,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>43899</v>
@@ -3040,7 +4858,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>43904</v>
@@ -3048,7 +4866,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>43891</v>
@@ -3056,23 +4874,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>43899</v>
@@ -3080,7 +4898,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>43903</v>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>Persons under investigation</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Mahoning</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Huron</t>
+  </si>
+  <si>
+    <t>Coshocton</t>
   </si>
 </sst>
 </file>
@@ -450,353 +465,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Ohio_CDC!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0185-4C9A-8D05-FC28FDD424EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1902778207"/>
-        <c:axId val="1902778623"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1902778207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1902778623"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1902778623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1902778207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1352,522 +1021,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1895,36 +1048,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2196,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,6 +1542,20 @@
         <v>333</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B13">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2428,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,7 +1576,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2479,80 +1616,95 @@
       <c r="M1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N11" si="0">SUM(B2:M2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>SUM(B2:R2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f t="shared" ref="S3:S14" si="0">SUM(B3:R3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -2571,12 +1723,12 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="S9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -2601,12 +1753,12 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -2631,12 +1783,12 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -2652,63 +1804,122 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <f>SUM(B12:M12)</f>
+      <c r="S12">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43907</v>
+      </c>
       <c r="B13">
-        <f>SUM(B2:B12)</f>
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:N13" si="1">SUM(C2:C12)</f>
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:R14" si="1">SUM(C2:C13)</f>
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J13">
+      <c r="O14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="P14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M13">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="R14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Coshocton</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>Delaware</t>
   </si>
 </sst>
 </file>
@@ -191,869 +197,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Ohio_CDC!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>361</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DF1-4731-81BC-CEACE309BC60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1892968079"/>
-        <c:axId val="1892953103"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1892968079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1892953103"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1892953103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1892968079"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,19 +699,32 @@
         <v>333</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +732,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1631,80 +787,86 @@
       <c r="R1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="S2">
-        <f>SUM(B2:R2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>SUM(B2:T2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S14" si="0">SUM(B3:R3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f t="shared" ref="U3:U14" si="0">SUM(B3:T3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -1723,12 +885,12 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -1753,12 +915,12 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -1783,12 +945,12 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -1804,12 +966,12 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -1843,83 +1005,127 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43908</v>
+      </c>
       <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:R14" si="1">SUM(C2:C13)</f>
-        <v>3</v>
-      </c>
-      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:U15" si="1">SUM(C2:C14)</f>
+        <v>3</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="M15">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="S15">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P14">
+      <c r="U15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Delaware</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +719,20 @@
         <v>333</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B15">
+        <v>116</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -721,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +752,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -793,80 +813,86 @@
       <c r="T1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="U2">
-        <f>SUM(B2:T2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <f>SUM(B2:V2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U14" si="0">SUM(B3:T3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <f t="shared" ref="W3:W15" si="0">SUM(B3:V3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -885,12 +911,12 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -915,12 +941,12 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -945,12 +971,12 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -966,12 +992,12 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -1005,12 +1031,12 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -1041,91 +1067,132 @@
       <c r="T14">
         <v>1</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43909</v>
+      </c>
       <c r="B15">
-        <f>SUM(B2:B14)</f>
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:U15" si="1">SUM(C2:C14)</f>
-        <v>3</v>
-      </c>
-      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" ref="B16:S16" si="1">SUM(B2:B15)</f>
+        <v>53</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I15">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J15">
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="L16">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U15">
+      <c r="S16">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f>SUM(T2:T15)</f>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16" si="2">SUM(U2:U15)</f>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16" si="3">SUM(V2:V15)</f>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16" si="4">SUM(W2:W15)</f>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
-    <sheet name="1point3square" sheetId="2" r:id="rId2"/>
+    <sheet name="Counties" sheetId="2" r:id="rId2"/>
     <sheet name="coronavirus_google_trend" sheetId="3" r:id="rId3"/>
     <sheet name="COVID-19_google_trend" sheetId="4" r:id="rId4"/>
     <sheet name="Important_date" sheetId="5" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -146,13 +146,37 @@
   </si>
   <si>
     <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Ashtabula</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Richland</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Deaths</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,16 +184,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -177,9 +501,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -189,8 +661,49 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="30" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="33" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="22" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="36"/>
+    <cellStyle name="60% - Accent2 2" xfId="37"/>
+    <cellStyle name="60% - Accent3 2" xfId="38"/>
+    <cellStyle name="60% - Accent4 2" xfId="39"/>
+    <cellStyle name="60% - Accent5 2" xfId="40"/>
+    <cellStyle name="60% - Accent6 2" xfId="41"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="26" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="29" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="32" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +1010,9 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -731,6 +1247,20 @@
       </c>
       <c r="F15" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B16">
+        <v>169</v>
+      </c>
+      <c r="E16">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -741,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,272 +1282,290 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
         <v>32</v>
       </c>
       <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="V1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="W2">
-        <f>SUM(B2:V2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AD2">
+        <f>SUM(B2:AC2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W15" si="0">SUM(B3:V3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD16" si="0">SUM(B3:AC3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="W4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="W5">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="W6">
+      <c r="AD6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="W7">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="W8">
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="W9">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
-      <c r="B10">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="W10">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
-      <c r="B12">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="W12">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
-      <c r="B13">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>7</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>1</v>
+      <c r="K13">
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1025,35 +1573,38 @@
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="W13">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1061,138 +1612,229 @@
       <c r="P14">
         <v>2</v>
       </c>
-      <c r="S14">
-        <v>1</v>
+      <c r="R14">
+        <v>2</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
-      <c r="W14">
+      <c r="AD14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
-      <c r="B15">
+      <c r="H15">
         <v>15</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="P15">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
       <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f t="shared" ref="B16:S16" si="1">SUM(B2:B15)</f>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43910</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C16">
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" ref="B17:AC17" si="1">SUM(B2:B16)</f>
+        <v>1</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="U17">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J16">
+      <c r="Y17">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="AC17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <f>SUM(T2:T15)</f>
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <f t="shared" ref="U16" si="2">SUM(U2:U15)</f>
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <f t="shared" ref="V16" si="3">SUM(V2:V15)</f>
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <f t="shared" ref="W16" si="4">SUM(W2:W15)</f>
-        <v>116</v>
+      <c r="AD17">
+        <f>SUM(AD2:AD16)</f>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3315,7 +3957,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,8 +4002,8 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
+      <c r="B5" s="2">
+        <v>43910</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
     <sheet name="Counties" sheetId="2" r:id="rId2"/>
-    <sheet name="coronavirus_google_trend" sheetId="3" r:id="rId3"/>
-    <sheet name="COVID-19_google_trend" sheetId="4" r:id="rId4"/>
-    <sheet name="Important_date" sheetId="5" r:id="rId5"/>
+    <sheet name="Counties_death" sheetId="6" r:id="rId3"/>
+    <sheet name="coronavirus_google_trend" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="COVID-19_google_trend" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Important_date" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -170,6 +171,21 @@
   </si>
   <si>
     <t>Deaths</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Defiance</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>Gallia</t>
+  </si>
+  <si>
+    <t>Licking</t>
   </si>
 </sst>
 </file>
@@ -981,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,6 +1279,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B17">
+        <v>247</v>
+      </c>
+      <c r="E17">
+        <v>58</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1271,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1312,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1302,148 +1332,163 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="AD2">
-        <f>SUM(B2:AC2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI2">
+        <f>SUM(B2:AH2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD16" si="0">SUM(B3:AC3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI15" si="0">SUM(B3:AH3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="AD4">
+      <c r="AI4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="AD5">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="AD6">
+      <c r="AI6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -1453,141 +1498,141 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
         <v>1</v>
       </c>
       <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="AD12">
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="T13">
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -1597,66 +1642,66 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>15</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>2</v>
       </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
       <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -1669,172 +1714,255 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>16</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="M16">
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
         <v>6</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="U16">
         <v>4</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="U16">
+      <c r="V16">
         <v>1</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>3</v>
-      </c>
-      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
         <v>4</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>2</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="0"/>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <f>SUM(B16:AH16)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f t="shared" ref="B17:AC17" si="1">SUM(B2:B16)</f>
-        <v>1</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43911</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AI17">
+        <f>SUM(B17:AH17)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>SUM(B2:B17)</f>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:AI18" si="1">SUM(C2:C17)</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="I17">
+        <v>92</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K17">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L17">
+      <c r="V18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="Y18">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P17">
+        <v>9</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q17">
+        <v>11</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T17">
+        <v>8</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="U17">
+        <v>15</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="AF18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W17">
+      <c r="AG18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X17">
+      <c r="AH18">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <f>SUM(AD2:AD16)</f>
-        <v>169</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1843,6 +1971,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43910</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D4" si="0">SUM(C2:C3)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>SUM(E2:E3)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
@@ -2897,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
@@ -3952,7 +4154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +323,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -669,12 +677,15 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1974,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4156,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,7 +4179,7 @@
     <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>43849</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4184,7 +4195,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4192,7 +4203,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4200,7 +4211,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4208,7 +4219,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4216,7 +4227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4224,13 +4235,34 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>43903</v>
       </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Ohio_CDC" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -186,13 +186,52 @@
   </si>
   <si>
     <t>Licking</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Columbiana</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Hancock</t>
+  </si>
+  <si>
+    <t>Portage</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Sandusky</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Highland</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Madison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +373,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -677,7 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -687,6 +732,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1008,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,6 +1350,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B18">
+        <v>351</v>
+      </c>
+      <c r="E18">
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B19">
+        <v>442</v>
+      </c>
+      <c r="E19">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1312,18 +1386,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="48" max="48" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1340,166 +1415,205 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AM1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AO1" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AP1" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AQ1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AR1" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AS1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AT1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="AI2">
-        <f>SUM(B2:AH2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AV2">
+        <f t="shared" ref="AV2:AV19" si="0">SUM(B2:AU2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI15" si="0">SUM(B3:AH3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AV3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="AI4">
+      <c r="AV4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="AI5">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="AI6">
+      <c r="AV6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -1509,141 +1623,141 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="U10">
+      <c r="Q10">
         <v>1</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AI11">
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>7</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>2</v>
-      </c>
-      <c r="AI13">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>2</v>
+      </c>
+      <c r="AV13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -1653,66 +1767,66 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>7</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>15</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>2</v>
-      </c>
-      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>2</v>
+      </c>
+      <c r="AV15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -1722,271 +1836,501 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>16</v>
       </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
       <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="U16">
         <v>6</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="U16">
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
         <v>4</v>
       </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>3</v>
-      </c>
       <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
         <v>4</v>
       </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>2</v>
-      </c>
-      <c r="AI16">
-        <f>SUM(B16:AH16)</f>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>2</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="L17">
         <v>23</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
       <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>7</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
+      <c r="R17">
         <v>1</v>
       </c>
       <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
         <v>4</v>
       </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AF17">
         <v>7</v>
       </c>
-      <c r="Y17">
-        <v>3</v>
-      </c>
-      <c r="Z17">
+      <c r="AH17">
+        <v>3</v>
+      </c>
+      <c r="AI17">
         <v>10</v>
       </c>
-      <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AD17">
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
         <v>5</v>
       </c>
-      <c r="AI17">
-        <f>SUM(B17:AH17)</f>
+      <c r="AV17">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>SUM(B2:B17)</f>
-        <v>1</v>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43912</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:AI18" si="1">SUM(C2:C17)</f>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
         <v>4</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>2</v>
+      </c>
+      <c r="AJ18">
+        <v>4</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
         <v>8</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43913</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
         <v>4</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="1"/>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>5</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>5</v>
+      </c>
+      <c r="AI19">
         <v>4</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="1"/>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>2</v>
+      </c>
+      <c r="AO19">
+        <v>5</v>
+      </c>
+      <c r="AS19">
+        <v>2</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" ref="B20" si="1">SUM(B2:B19)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20" si="2">SUM(C2:C19)</f>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="3">SUM(D2:D19)</f>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="4">SUM(E2:E19)</f>
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="5">SUM(F2:F19)</f>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="6">SUM(G2:G19)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="7">SUM(H2:H19)</f>
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="8">SUM(I2:I19)</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="9">SUM(J2:J19)</f>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="10">SUM(K2:K19)</f>
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="11">SUM(L2:L19)</f>
+        <v>149</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="12">SUM(M2:M19)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="13">SUM(N2:N19)</f>
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20" si="14">SUM(O2:O19)</f>
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20" si="15">SUM(P2:P19)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20" si="16">SUM(Q2:Q19)</f>
+        <v>44</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20" si="17">SUM(R2:R19)</f>
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20" si="18">SUM(S2:S19)</f>
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20" si="19">SUM(T2:T19)</f>
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20" si="20">SUM(U2:U19)</f>
+        <v>26</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20" si="21">SUM(V2:V19)</f>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20" si="22">SUM(W2:W19)</f>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20" si="23">SUM(X2:X19)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20" si="24">SUM(Y2:Y19)</f>
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20" si="25">SUM(Z2:Z19)</f>
+        <v>8</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ref="AA20" si="26">SUM(AA2:AA19)</f>
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ref="AB20" si="27">SUM(AB2:AB19)</f>
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" ref="AC20" si="28">SUM(AC2:AC19)</f>
+        <v>24</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" ref="AD20" si="29">SUM(AD2:AD19)</f>
         <v>9</v>
       </c>
-      <c r="Z18">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="1"/>
+      <c r="AE20">
+        <f t="shared" ref="AE20" si="30">SUM(AE2:AE19)</f>
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" ref="AF20" si="31">SUM(AF2:AF19)</f>
+        <v>23</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" ref="AG20" si="32">SUM(AG2:AG19)</f>
+        <v>3</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" ref="AH20" si="33">SUM(AH2:AH19)</f>
         <v>15</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
+      <c r="AI20">
+        <f t="shared" ref="AI20" si="34">SUM(AI2:AI19)</f>
+        <v>17</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" ref="AJ20" si="35">SUM(AJ2:AJ19)</f>
+        <v>7</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" ref="AK20" si="36">SUM(AK2:AK19)</f>
+        <v>2</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" ref="AL20" si="37">SUM(AL2:AL19)</f>
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" ref="AM20" si="38">SUM(AM2:AM19)</f>
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" ref="AN20" si="39">SUM(AN2:AN19)</f>
+        <v>12</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" ref="AO20" si="40">SUM(AO2:AO19)</f>
+        <v>28</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" ref="AP20" si="41">SUM(AP2:AP19)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" ref="AQ20" si="42">SUM(AQ2:AQ19)</f>
+        <v>2</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" ref="AR20" si="43">SUM(AR2:AR19)</f>
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" ref="AS20" si="44">SUM(AS2:AS19)</f>
+        <v>5</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" ref="AT20" si="45">SUM(AT2:AT19)</f>
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" ref="AU20:AV20" si="46">SUM(AU2:AU19)</f>
+        <v>2</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="46"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +2338,7 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -2002,22 +2346,28 @@
         <v>51</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43910</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
-        <f>SUM(B2:D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43911</v>
       </c>
@@ -2027,27 +2377,59 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>SUM(B3:D3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:D4" si="0">SUM(C2:C3)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43912</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4:F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43913</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>SUM(B5:F5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="0">SUM(C2:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f>SUM(E2:E3)</f>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>SUM(B6:F6)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:V13"/>
     </sheetView>
   </sheetViews>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Negative PUIs</t>
   </si>
@@ -225,6 +225,21 @@
   </si>
   <si>
     <t>Madison</t>
+  </si>
+  <si>
+    <t>ICU admissions</t>
+  </si>
+  <si>
+    <t>Age range</t>
+  </si>
+  <si>
+    <t>&lt;1 - 94</t>
+  </si>
+  <si>
+    <t>Median age</t>
+  </si>
+  <si>
+    <t>Male percent</t>
   </si>
 </sst>
 </file>
@@ -722,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -733,6 +748,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1054,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1083,7 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1086,8 +1102,20 @@
       <c r="G1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -1104,7 +1132,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -1121,7 +1149,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -1138,7 +1166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -1155,7 +1183,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -1175,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -1192,7 +1220,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -1209,7 +1237,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -1226,7 +1254,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -1243,7 +1271,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -1280,7 +1308,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -1294,7 +1322,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -1308,7 +1336,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -1322,7 +1350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -1336,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
@@ -1350,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43912</v>
       </c>
@@ -1364,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43913</v>
       </c>
@@ -1376,6 +1404,46 @@
       </c>
       <c r="G19">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B20">
+        <v>564</v>
+      </c>
+      <c r="E20">
+        <v>145</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B21">
+        <v>704</v>
+      </c>
+      <c r="E21">
+        <v>182</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21">
+        <v>51</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
